--- a/samples/ejemplo_datos.xlsx
+++ b/samples/ejemplo_datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ia academy\Desktop\GFJL\AI_Academy\certificados_app\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ia academy\Desktop\GFJL\AI_Academy\certificados_app\GenCer\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D16645-8B1F-46EF-B29C-8B375F726AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59023C96-0B1A-4D0F-96E7-BC21C53727EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>nombre</t>
   </si>
@@ -73,7 +73,10 @@
     <t>si</t>
   </si>
   <si>
-    <t>no</t>
+    <t>Gean Franco</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -561,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,6 +581,23 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>777777777</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45845</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
